--- a/data/pca/factorExposure/factorExposure_2017-03-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01886958094993785</v>
+        <v>0.01141351000943086</v>
       </c>
       <c r="C2">
-        <v>0.01581526958468499</v>
+        <v>-0.04272690843716268</v>
       </c>
       <c r="D2">
-        <v>-0.03224112224454115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0302342104675283</v>
+      </c>
+      <c r="E2">
+        <v>0.04168605537814156</v>
+      </c>
+      <c r="F2">
+        <v>0.000909580789754663</v>
+      </c>
+      <c r="G2">
+        <v>-0.1048289959932112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02215705130647468</v>
+        <v>0.03997317127356737</v>
       </c>
       <c r="C3">
-        <v>-0.004161760827581554</v>
+        <v>-0.09934671318086968</v>
       </c>
       <c r="D3">
-        <v>-0.08469983881223839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01795857750812116</v>
+      </c>
+      <c r="E3">
+        <v>0.1029017135625824</v>
+      </c>
+      <c r="F3">
+        <v>0.009212271349690691</v>
+      </c>
+      <c r="G3">
+        <v>-0.1549782969788319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02975992014944983</v>
+        <v>0.0562028791808437</v>
       </c>
       <c r="C4">
-        <v>0.006059571875183929</v>
+        <v>-0.06773396278207927</v>
       </c>
       <c r="D4">
-        <v>-0.07611733366126752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0248519296215736</v>
+      </c>
+      <c r="E4">
+        <v>0.0370155690519633</v>
+      </c>
+      <c r="F4">
+        <v>-0.005946394757918599</v>
+      </c>
+      <c r="G4">
+        <v>-0.09929492413231819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0105814171187133</v>
+        <v>0.0361521491543086</v>
       </c>
       <c r="C6">
-        <v>0.01072866963734841</v>
+        <v>-0.05027059276572805</v>
       </c>
       <c r="D6">
-        <v>-0.07221933054166456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.017393075279904</v>
+      </c>
+      <c r="E6">
+        <v>0.04083751217354292</v>
+      </c>
+      <c r="F6">
+        <v>-0.00221953087773627</v>
+      </c>
+      <c r="G6">
+        <v>-0.08695036019496555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.001806731357897203</v>
+        <v>0.02072172885754343</v>
       </c>
       <c r="C7">
-        <v>0.01261508182960274</v>
+        <v>-0.03923278922884392</v>
       </c>
       <c r="D7">
-        <v>-0.0349505632754856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01403410548976468</v>
+      </c>
+      <c r="E7">
+        <v>0.00800464081489723</v>
+      </c>
+      <c r="F7">
+        <v>0.006257687838769788</v>
+      </c>
+      <c r="G7">
+        <v>-0.123542470653408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002755947686919104</v>
+        <v>0.002670269118499011</v>
       </c>
       <c r="C8">
-        <v>0.002727479033805627</v>
+        <v>-0.02368286419985494</v>
       </c>
       <c r="D8">
-        <v>0.006961150798651137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004064587804740031</v>
+      </c>
+      <c r="E8">
+        <v>0.03254015266843223</v>
+      </c>
+      <c r="F8">
+        <v>-0.001599041605473503</v>
+      </c>
+      <c r="G8">
+        <v>-0.07150313651548944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01341940098495103</v>
+        <v>0.03351497527545438</v>
       </c>
       <c r="C9">
-        <v>0.007669478810015129</v>
+        <v>-0.04986619820470741</v>
       </c>
       <c r="D9">
-        <v>-0.05776739846511323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01658347969791337</v>
+      </c>
+      <c r="E9">
+        <v>0.02510248075940277</v>
+      </c>
+      <c r="F9">
+        <v>-0.005211547839872438</v>
+      </c>
+      <c r="G9">
+        <v>-0.1015636830513758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.139702386208353</v>
+        <v>0.09816744892826321</v>
       </c>
       <c r="C10">
-        <v>-0.1091009331103196</v>
+        <v>0.1833542977598828</v>
       </c>
       <c r="D10">
-        <v>0.1135686251719293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01562205297848413</v>
+      </c>
+      <c r="E10">
+        <v>0.01912308840408481</v>
+      </c>
+      <c r="F10">
+        <v>0.02246348186697671</v>
+      </c>
+      <c r="G10">
+        <v>-0.05336048521788971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.002548893022069377</v>
+        <v>0.03492877196639684</v>
       </c>
       <c r="C11">
-        <v>-0.0008250095413405644</v>
+        <v>-0.05234623039784733</v>
       </c>
       <c r="D11">
-        <v>-0.05183508982386031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002558271815724784</v>
+      </c>
+      <c r="E11">
+        <v>0.02011997690439113</v>
+      </c>
+      <c r="F11">
+        <v>-0.01546398762207627</v>
+      </c>
+      <c r="G11">
+        <v>-0.09111565622577339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.007590157102276365</v>
+        <v>0.0367447770546983</v>
       </c>
       <c r="C12">
-        <v>0.001476914449691032</v>
+        <v>-0.04704970452709065</v>
       </c>
       <c r="D12">
-        <v>-0.04597888172266879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006641593274234399</v>
+      </c>
+      <c r="E12">
+        <v>0.0106210595799049</v>
+      </c>
+      <c r="F12">
+        <v>0.001118056738894963</v>
+      </c>
+      <c r="G12">
+        <v>-0.08329793108471814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01678986827359213</v>
+        <v>0.01530400568992781</v>
       </c>
       <c r="C13">
-        <v>0.01420369702110009</v>
+        <v>-0.0416938309706483</v>
       </c>
       <c r="D13">
-        <v>-0.03372966246688445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02693162508702534</v>
+      </c>
+      <c r="E13">
+        <v>0.04097260792627971</v>
+      </c>
+      <c r="F13">
+        <v>0.003598449100174211</v>
+      </c>
+      <c r="G13">
+        <v>-0.1429818868332893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002281471273157843</v>
+        <v>0.008385405684170446</v>
       </c>
       <c r="C14">
-        <v>0.006749667865661559</v>
+        <v>-0.02817671218699515</v>
       </c>
       <c r="D14">
-        <v>-0.02099214203147378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01034696396033512</v>
+      </c>
+      <c r="E14">
+        <v>0.009208177969248178</v>
+      </c>
+      <c r="F14">
+        <v>0.009479542455939691</v>
+      </c>
+      <c r="G14">
+        <v>-0.1110885333082794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.006483469086690879</v>
+        <v>0.03366050070519785</v>
       </c>
       <c r="C16">
-        <v>-0.003864296804789764</v>
+        <v>-0.04530962110330773</v>
       </c>
       <c r="D16">
-        <v>-0.04095034174489391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.00199218541614782</v>
+      </c>
+      <c r="E16">
+        <v>0.01561405275813788</v>
+      </c>
+      <c r="F16">
+        <v>0.003090328317783234</v>
+      </c>
+      <c r="G16">
+        <v>-0.09259885006941056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01000504625471604</v>
+        <v>0.02259277866693426</v>
       </c>
       <c r="C19">
-        <v>0.00860903843671452</v>
+        <v>-0.05115921524457427</v>
       </c>
       <c r="D19">
-        <v>-0.03551812255946728</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01989019535260556</v>
+      </c>
+      <c r="E19">
+        <v>0.08569197060679209</v>
+      </c>
+      <c r="F19">
+        <v>-0.008541183006136229</v>
+      </c>
+      <c r="G19">
+        <v>-0.1416031354340432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.003477630242823774</v>
+        <v>0.01561977756173604</v>
       </c>
       <c r="C20">
-        <v>0.0106893367736098</v>
+        <v>-0.04180704622879047</v>
       </c>
       <c r="D20">
-        <v>-0.03283152549635855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01456627312846459</v>
+      </c>
+      <c r="E20">
+        <v>0.03910444783835823</v>
+      </c>
+      <c r="F20">
+        <v>0.01844145782260376</v>
+      </c>
+      <c r="G20">
+        <v>-0.1129189723451995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.007165056838478566</v>
+        <v>0.01063125065978582</v>
       </c>
       <c r="C21">
-        <v>0.01061445413254926</v>
+        <v>-0.03818112507600939</v>
       </c>
       <c r="D21">
-        <v>-0.01383843566465993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01975518471496028</v>
+      </c>
+      <c r="E21">
+        <v>0.05114931149131158</v>
+      </c>
+      <c r="F21">
+        <v>0.006364468567817386</v>
+      </c>
+      <c r="G21">
+        <v>-0.1442491828191069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0007618302169070261</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006692078718864709</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.001936915787152624</v>
+      </c>
+      <c r="E22">
+        <v>0.0150048007902749</v>
+      </c>
+      <c r="F22">
+        <v>-0.01042842940009083</v>
+      </c>
+      <c r="G22">
+        <v>-0.001430447744966327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0007582613235869362</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006692768863248506</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00193243376052045</v>
+      </c>
+      <c r="E23">
+        <v>0.01496300218890771</v>
+      </c>
+      <c r="F23">
+        <v>-0.010399895847712</v>
+      </c>
+      <c r="G23">
+        <v>-0.001313255452187144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.000654235525559027</v>
+        <v>0.02854623173966151</v>
       </c>
       <c r="C24">
-        <v>0.006842897965533749</v>
+        <v>-0.04926549342836426</v>
       </c>
       <c r="D24">
-        <v>-0.04383202622390624</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.00721778524487206</v>
+      </c>
+      <c r="E24">
+        <v>0.01397768670044316</v>
+      </c>
+      <c r="F24">
+        <v>-0.008152420980158153</v>
+      </c>
+      <c r="G24">
+        <v>-0.09172347272877353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.016606433951793</v>
+        <v>0.04266629316170995</v>
       </c>
       <c r="C25">
-        <v>0.0007680407800415944</v>
+        <v>-0.05668123129783573</v>
       </c>
       <c r="D25">
-        <v>-0.05890577997007837</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01126911780056812</v>
+      </c>
+      <c r="E25">
+        <v>0.006128836398734761</v>
+      </c>
+      <c r="F25">
+        <v>-0.002818943858346649</v>
+      </c>
+      <c r="G25">
+        <v>-0.09859172501191509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01253536871185503</v>
+        <v>0.01404364120683952</v>
       </c>
       <c r="C26">
-        <v>0.01779224051136313</v>
+        <v>-0.01171669902466088</v>
       </c>
       <c r="D26">
-        <v>-0.001144386462466837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02419767969080874</v>
+      </c>
+      <c r="E26">
+        <v>0.01011185984028789</v>
+      </c>
+      <c r="F26">
+        <v>0.008302604742240375</v>
+      </c>
+      <c r="G26">
+        <v>-0.08596459119646511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1881031427066616</v>
+        <v>0.1262215412183354</v>
       </c>
       <c r="C28">
-        <v>-0.1282966353297475</v>
+        <v>0.2425887434083234</v>
       </c>
       <c r="D28">
-        <v>0.1395262886433303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006774071475847666</v>
+      </c>
+      <c r="E28">
+        <v>0.007349156060084096</v>
+      </c>
+      <c r="F28">
+        <v>0.0187471078470775</v>
+      </c>
+      <c r="G28">
+        <v>-0.04663627651565153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006632387758112009</v>
+        <v>0.008697489299211559</v>
       </c>
       <c r="C29">
-        <v>0.003185017326838966</v>
+        <v>-0.02293417562200481</v>
       </c>
       <c r="D29">
-        <v>-0.01709552571195763</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009433427529223553</v>
+      </c>
+      <c r="E29">
+        <v>0.00515179581083759</v>
+      </c>
+      <c r="F29">
+        <v>0.015291258643225</v>
+      </c>
+      <c r="G29">
+        <v>-0.1033995319631529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0118730081222947</v>
+        <v>0.04108103624179768</v>
       </c>
       <c r="C30">
-        <v>0.02095907803577577</v>
+        <v>-0.06827018845793753</v>
       </c>
       <c r="D30">
-        <v>-0.09446734195562857</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0294664434396327</v>
+      </c>
+      <c r="E30">
+        <v>0.06867521748192615</v>
+      </c>
+      <c r="F30">
+        <v>-0.03466706728848647</v>
+      </c>
+      <c r="G30">
+        <v>-0.1377559652041205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0225726437764882</v>
+        <v>0.05332513242925183</v>
       </c>
       <c r="C31">
-        <v>-0.01041318627571844</v>
+        <v>-0.03916557685516048</v>
       </c>
       <c r="D31">
-        <v>-0.03222622761906799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003782365031662543</v>
+      </c>
+      <c r="E31">
+        <v>-0.003271080714733373</v>
+      </c>
+      <c r="F31">
+        <v>0.03876807814435597</v>
+      </c>
+      <c r="G31">
+        <v>-0.09724754842857543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003781374269123699</v>
+        <v>0.00274322958015577</v>
       </c>
       <c r="C32">
-        <v>-0.007185074902009302</v>
+        <v>-0.02094332478771568</v>
       </c>
       <c r="D32">
-        <v>0.006937586054162059</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002614280683903518</v>
+      </c>
+      <c r="E32">
+        <v>0.0413629294880414</v>
+      </c>
+      <c r="F32">
+        <v>-0.03291236338723315</v>
+      </c>
+      <c r="G32">
+        <v>-0.09251291409912669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.00925361869315109</v>
+        <v>0.02828942921925453</v>
       </c>
       <c r="C33">
-        <v>0.006947024102820655</v>
+        <v>-0.05074569689125501</v>
       </c>
       <c r="D33">
-        <v>-0.04221788601443179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01647141992082715</v>
+      </c>
+      <c r="E33">
+        <v>0.05001279801711275</v>
+      </c>
+      <c r="F33">
+        <v>-0.01014442823527954</v>
+      </c>
+      <c r="G33">
+        <v>-0.1646013399484378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01175349025599168</v>
+        <v>0.04015867457086159</v>
       </c>
       <c r="C34">
-        <v>-0.01550105702502246</v>
+        <v>-0.05854391214312032</v>
       </c>
       <c r="D34">
-        <v>-0.0603355374747985</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004359695149581089</v>
+      </c>
+      <c r="E34">
+        <v>0.01139002013755589</v>
+      </c>
+      <c r="F34">
+        <v>-0.01817799012488127</v>
+      </c>
+      <c r="G34">
+        <v>-0.09490702071692006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01284058837510314</v>
+        <v>0.01604505091799966</v>
       </c>
       <c r="C36">
-        <v>0.003830905124977524</v>
+        <v>-0.01064235565522573</v>
       </c>
       <c r="D36">
-        <v>-0.005095045508781069</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0129770989680182</v>
+      </c>
+      <c r="E36">
+        <v>0.0103790080357628</v>
+      </c>
+      <c r="F36">
+        <v>0.00856263095672978</v>
+      </c>
+      <c r="G36">
+        <v>-0.09457625224926654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01748397177143412</v>
+        <v>0.03148309214194938</v>
       </c>
       <c r="C38">
-        <v>-0.0220402986553736</v>
+        <v>-0.03013803410439614</v>
       </c>
       <c r="D38">
-        <v>-0.04045230866621312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007510161112266903</v>
+      </c>
+      <c r="E38">
+        <v>0.007028417930970345</v>
+      </c>
+      <c r="F38">
+        <v>0.01953451120422751</v>
+      </c>
+      <c r="G38">
+        <v>-0.08617900654246971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0102403266585221</v>
+        <v>0.03686328071547589</v>
       </c>
       <c r="C39">
-        <v>0.01820419338492679</v>
+        <v>-0.07860587860657123</v>
       </c>
       <c r="D39">
-        <v>-0.09831344712456649</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01177688890484872</v>
+      </c>
+      <c r="E39">
+        <v>0.03171603611595839</v>
+      </c>
+      <c r="F39">
+        <v>-0.01780043606864151</v>
+      </c>
+      <c r="G39">
+        <v>-0.09164755550094546</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0144394384184811</v>
+        <v>0.01386682434423844</v>
       </c>
       <c r="C40">
-        <v>0.002509832882821169</v>
+        <v>-0.03778758933565217</v>
       </c>
       <c r="D40">
-        <v>-0.02759610291211928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01490944717787161</v>
+      </c>
+      <c r="E40">
+        <v>0.03389576486548056</v>
+      </c>
+      <c r="F40">
+        <v>0.01259890962864676</v>
+      </c>
+      <c r="G40">
+        <v>-0.1251823237994916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0132629853232861</v>
+        <v>0.02018620085289191</v>
       </c>
       <c r="C41">
-        <v>-0.005760604785174562</v>
+        <v>-0.003965762099542651</v>
       </c>
       <c r="D41">
-        <v>0.009646442359635736</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004791038758415545</v>
+      </c>
+      <c r="E41">
+        <v>0.007731623545497071</v>
+      </c>
+      <c r="F41">
+        <v>0.01554362096174487</v>
+      </c>
+      <c r="G41">
+        <v>-0.08791936160453868</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.04118987689135057</v>
+        <v>0.007779580141131181</v>
       </c>
       <c r="C42">
-        <v>0.08349091042632657</v>
+        <v>-0.02881868730864999</v>
       </c>
       <c r="D42">
-        <v>-0.1097162377875013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08746651136132276</v>
+      </c>
+      <c r="E42">
+        <v>0.007461688153328649</v>
+      </c>
+      <c r="F42">
+        <v>0.04085127506182246</v>
+      </c>
+      <c r="G42">
+        <v>0.02849638843954375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01397065439300532</v>
+        <v>0.03548335019720362</v>
       </c>
       <c r="C43">
-        <v>-0.005273593565568406</v>
+        <v>-0.01922048588694495</v>
       </c>
       <c r="D43">
-        <v>0.008961132834216869</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006149781276446971</v>
+      </c>
+      <c r="E43">
+        <v>0.02192952373622271</v>
+      </c>
+      <c r="F43">
+        <v>0.0104161440807653</v>
+      </c>
+      <c r="G43">
+        <v>-0.121361830871156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0007375419534663289</v>
+        <v>0.01424412469042195</v>
       </c>
       <c r="C44">
-        <v>0.003820111404533834</v>
+        <v>-0.05835927241173654</v>
       </c>
       <c r="D44">
-        <v>-0.04668205343479086</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007006425641229505</v>
+      </c>
+      <c r="E44">
+        <v>0.02648110386476289</v>
+      </c>
+      <c r="F44">
+        <v>0.01076662515820562</v>
+      </c>
+      <c r="G44">
+        <v>-0.111211394131905</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006021852714376188</v>
+        <v>0.008953153388160743</v>
       </c>
       <c r="C46">
-        <v>0.007451825020319838</v>
+        <v>-0.01494508649592342</v>
       </c>
       <c r="D46">
-        <v>0.002614589384821272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01262473995848049</v>
+      </c>
+      <c r="E46">
+        <v>-0.0004519986771481361</v>
+      </c>
+      <c r="F46">
+        <v>0.01975209018386661</v>
+      </c>
+      <c r="G46">
+        <v>-0.1108258679932578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02384384617602717</v>
+        <v>0.07850104189275253</v>
       </c>
       <c r="C47">
-        <v>-0.01959270387516555</v>
+        <v>-0.06903433121613199</v>
       </c>
       <c r="D47">
-        <v>-0.07725650476131114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00506582290902533</v>
+      </c>
+      <c r="E47">
+        <v>-0.01072454557238298</v>
+      </c>
+      <c r="F47">
+        <v>0.05388393164262036</v>
+      </c>
+      <c r="G47">
+        <v>-0.08245712127619595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008175707305487282</v>
+        <v>0.01868235366229695</v>
       </c>
       <c r="C48">
-        <v>-0.004601020802196697</v>
+        <v>-0.01350734114900655</v>
       </c>
       <c r="D48">
-        <v>-0.01777982020082536</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002568830230060827</v>
+      </c>
+      <c r="E48">
+        <v>0.006512694724349203</v>
+      </c>
+      <c r="F48">
+        <v>0.01995743869141515</v>
+      </c>
+      <c r="G48">
+        <v>-0.09984397468479135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03001697669925913</v>
+        <v>0.07493666070938912</v>
       </c>
       <c r="C50">
-        <v>-0.02196961795338956</v>
+        <v>-0.07259504256726865</v>
       </c>
       <c r="D50">
-        <v>-0.06901899145719699</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002110201620820951</v>
+      </c>
+      <c r="E50">
+        <v>-0.007449635274244697</v>
+      </c>
+      <c r="F50">
+        <v>0.05410058624835318</v>
+      </c>
+      <c r="G50">
+        <v>-0.09353517383282786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008805015604165621</v>
+        <v>0.01353460582994048</v>
       </c>
       <c r="C51">
-        <v>0.0006648377740422469</v>
+        <v>-0.03726327172733462</v>
       </c>
       <c r="D51">
-        <v>-0.02733767575461827</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01075901944230691</v>
+      </c>
+      <c r="E51">
+        <v>0.0298287657275573</v>
+      </c>
+      <c r="F51">
+        <v>-0.01547012753113022</v>
+      </c>
+      <c r="G51">
+        <v>-0.1246251812465547</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03813606594280246</v>
+        <v>0.08169006958996275</v>
       </c>
       <c r="C53">
-        <v>-0.02752318339588045</v>
+        <v>-0.08530234414958762</v>
       </c>
       <c r="D53">
-        <v>-0.1256217845993109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003348811351780004</v>
+      </c>
+      <c r="E53">
+        <v>-0.02949954477649215</v>
+      </c>
+      <c r="F53">
+        <v>0.06018787705587759</v>
+      </c>
+      <c r="G53">
+        <v>-0.08971650988301583</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01521162670434621</v>
+        <v>0.03196429538717487</v>
       </c>
       <c r="C54">
-        <v>-0.01481808366237576</v>
+        <v>-0.01900241629611023</v>
       </c>
       <c r="D54">
-        <v>-0.0007036706411994515</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0009565622847319015</v>
+      </c>
+      <c r="E54">
+        <v>0.02054824491659078</v>
+      </c>
+      <c r="F54">
+        <v>0.008050839058076601</v>
+      </c>
+      <c r="G54">
+        <v>-0.1111486668374039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0226678481738006</v>
+        <v>0.07249690819783569</v>
       </c>
       <c r="C55">
-        <v>-0.01775271086480573</v>
+        <v>-0.06806081255776626</v>
       </c>
       <c r="D55">
-        <v>-0.1018086043692409</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005008022913611306</v>
+      </c>
+      <c r="E55">
+        <v>-0.02728979073981089</v>
+      </c>
+      <c r="F55">
+        <v>0.06119483583663446</v>
+      </c>
+      <c r="G55">
+        <v>-0.06715713157504813</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04279231172570132</v>
+        <v>0.1360049119639403</v>
       </c>
       <c r="C56">
-        <v>-0.03550224125718086</v>
+        <v>-0.1084185026738537</v>
       </c>
       <c r="D56">
-        <v>-0.1587075202465313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01253153173301198</v>
+      </c>
+      <c r="E56">
+        <v>-0.0410116605048684</v>
+      </c>
+      <c r="F56">
+        <v>0.07723555330944229</v>
+      </c>
+      <c r="G56">
+        <v>-0.03774451599317437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01956729889056082</v>
+        <v>0.005497556189561663</v>
       </c>
       <c r="C57">
-        <v>0.01331335492265874</v>
+        <v>-0.005750684090651144</v>
       </c>
       <c r="D57">
-        <v>-0.02672550184336375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02273438062064477</v>
+      </c>
+      <c r="E57">
+        <v>0.02480981792269096</v>
+      </c>
+      <c r="F57">
+        <v>-0.004140384442029508</v>
+      </c>
+      <c r="G57">
+        <v>-0.02248950750034946</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.006179103185191528</v>
+        <v>0.04896665154861877</v>
       </c>
       <c r="C58">
-        <v>-0.0014980958481369</v>
+        <v>-0.04463481463601336</v>
       </c>
       <c r="D58">
-        <v>-0.07381556520529331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02371205535604288</v>
+      </c>
+      <c r="E58">
+        <v>0.8724143303122464</v>
+      </c>
+      <c r="F58">
+        <v>0.3709749974695204</v>
+      </c>
+      <c r="G58">
+        <v>0.2458728934190485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2109497321976592</v>
+        <v>0.1593260478382436</v>
       </c>
       <c r="C59">
-        <v>-0.1507299303611745</v>
+        <v>0.2073069265980081</v>
       </c>
       <c r="D59">
-        <v>0.1171027082432424</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01159051766122595</v>
+      </c>
+      <c r="E59">
+        <v>0.02197306162805704</v>
+      </c>
+      <c r="F59">
+        <v>0.005533409527754312</v>
+      </c>
+      <c r="G59">
+        <v>-0.04088228993920932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1953751124617425</v>
+        <v>0.2884935787770093</v>
       </c>
       <c r="C60">
-        <v>-0.117245675199285</v>
+        <v>-0.1119710579114362</v>
       </c>
       <c r="D60">
-        <v>-0.1873575967100543</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01268571898670152</v>
+      </c>
+      <c r="E60">
+        <v>0.04751008035440734</v>
+      </c>
+      <c r="F60">
+        <v>-0.3466980051832517</v>
+      </c>
+      <c r="G60">
+        <v>0.1569256306458367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001627189177068179</v>
+        <v>0.03886447579584331</v>
       </c>
       <c r="C61">
-        <v>0.002878962306611684</v>
+        <v>-0.06559729516756878</v>
       </c>
       <c r="D61">
-        <v>-0.07766389155252836</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005889060165728896</v>
+      </c>
+      <c r="E61">
+        <v>0.02760792195703109</v>
+      </c>
+      <c r="F61">
+        <v>-0.01004469892345994</v>
+      </c>
+      <c r="G61">
+        <v>-0.10027653628228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.004624820750900796</v>
+        <v>0.01498784780022615</v>
       </c>
       <c r="C63">
-        <v>0.005619852120705237</v>
+        <v>-0.03064404094849972</v>
       </c>
       <c r="D63">
-        <v>-0.02512233389336244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008853192631749929</v>
+      </c>
+      <c r="E63">
+        <v>0.00613335677257433</v>
+      </c>
+      <c r="F63">
+        <v>0.01487691079096591</v>
+      </c>
+      <c r="G63">
+        <v>-0.09565155917557806</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02518162450245809</v>
+        <v>0.04933628502827946</v>
       </c>
       <c r="C64">
-        <v>-0.01171832619234408</v>
+        <v>-0.04696146650236156</v>
       </c>
       <c r="D64">
-        <v>-0.05548634545831626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006234948315411524</v>
+      </c>
+      <c r="E64">
+        <v>0.006779490915154752</v>
+      </c>
+      <c r="F64">
+        <v>-0.002950327564967455</v>
+      </c>
+      <c r="G64">
+        <v>-0.09855349211973308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03335846351734345</v>
+        <v>0.07512120391816847</v>
       </c>
       <c r="C65">
-        <v>-0.003084436607767257</v>
+        <v>-0.05822871783133597</v>
       </c>
       <c r="D65">
-        <v>-0.1156234808364197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01709426094304324</v>
+      </c>
+      <c r="E65">
+        <v>0.04524179185860359</v>
+      </c>
+      <c r="F65">
+        <v>-0.02313390238432268</v>
+      </c>
+      <c r="G65">
+        <v>-0.04375692459004674</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.008235632666008434</v>
+        <v>0.05035153131414774</v>
       </c>
       <c r="C66">
-        <v>0.01632770354242194</v>
+        <v>-0.1053476785316725</v>
       </c>
       <c r="D66">
-        <v>-0.1386325083301212</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01202128471756823</v>
+      </c>
+      <c r="E66">
+        <v>0.0470996641427108</v>
+      </c>
+      <c r="F66">
+        <v>-0.0287716667494511</v>
+      </c>
+      <c r="G66">
+        <v>-0.1061951843975149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0382264409626152</v>
+        <v>0.05445303215185709</v>
       </c>
       <c r="C67">
-        <v>-0.03271772496254103</v>
+        <v>-0.03427554223449972</v>
       </c>
       <c r="D67">
-        <v>-0.06199661710368803</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006088641054136231</v>
+      </c>
+      <c r="E67">
+        <v>-0.002958738858504124</v>
+      </c>
+      <c r="F67">
+        <v>0.01761697516202732</v>
+      </c>
+      <c r="G67">
+        <v>-0.07308028970517802</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2204454175327999</v>
+        <v>0.1569152238588926</v>
       </c>
       <c r="C68">
-        <v>-0.1340465981000238</v>
+        <v>0.2711277304368555</v>
       </c>
       <c r="D68">
-        <v>0.1752025703704189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005518699283920753</v>
+      </c>
+      <c r="E68">
+        <v>0.00853728998111334</v>
+      </c>
+      <c r="F68">
+        <v>0.04157844216165135</v>
+      </c>
+      <c r="G68">
+        <v>-0.02667905625911744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02908335364564011</v>
+        <v>0.08205034049066742</v>
       </c>
       <c r="C69">
-        <v>-0.02792858585333449</v>
+        <v>-0.07185620286674772</v>
       </c>
       <c r="D69">
-        <v>-0.08001200610052639</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008959033310694987</v>
+      </c>
+      <c r="E69">
+        <v>-0.02343310765601337</v>
+      </c>
+      <c r="F69">
+        <v>0.03422037043313223</v>
+      </c>
+      <c r="G69">
+        <v>-0.100475022756915</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1790247764401544</v>
+        <v>0.141794370319595</v>
       </c>
       <c r="C71">
-        <v>-0.1165092583199037</v>
+        <v>0.2287137246631484</v>
       </c>
       <c r="D71">
-        <v>0.1191571163532992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002774447109158429</v>
+      </c>
+      <c r="E71">
+        <v>0.0309336413907062</v>
+      </c>
+      <c r="F71">
+        <v>0.03047626845390912</v>
+      </c>
+      <c r="G71">
+        <v>-0.06833487129178285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0149670435967994</v>
+        <v>0.08618300117371291</v>
       </c>
       <c r="C72">
-        <v>-0.01859204166929942</v>
+        <v>-0.06766535047552411</v>
       </c>
       <c r="D72">
-        <v>-0.1030931966507785</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008709455590385775</v>
+      </c>
+      <c r="E72">
+        <v>-0.008225177220228591</v>
+      </c>
+      <c r="F72">
+        <v>-0.03044804257129086</v>
+      </c>
+      <c r="G72">
+        <v>-0.0895436423930623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2446123646813708</v>
+        <v>0.3764704288122716</v>
       </c>
       <c r="C73">
-        <v>-0.1423676916541779</v>
+        <v>-0.1160851829393088</v>
       </c>
       <c r="D73">
-        <v>-0.2887434797974794</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02216001984064399</v>
+      </c>
+      <c r="E73">
+        <v>0.1405809386309487</v>
+      </c>
+      <c r="F73">
+        <v>-0.5697364423631224</v>
+      </c>
+      <c r="G73">
+        <v>0.2846123095109185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0474797495510563</v>
+        <v>0.1050510059564715</v>
       </c>
       <c r="C74">
-        <v>-0.04093972900204142</v>
+        <v>-0.1097445643175641</v>
       </c>
       <c r="D74">
-        <v>-0.1725798962847987</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009357646344626788</v>
+      </c>
+      <c r="E74">
+        <v>-0.01318244263832948</v>
+      </c>
+      <c r="F74">
+        <v>0.06611043956130913</v>
+      </c>
+      <c r="G74">
+        <v>-0.07928781332253358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.113095563923861</v>
+        <v>0.2492123933498164</v>
       </c>
       <c r="C75">
-        <v>-0.09244056088393124</v>
+        <v>-0.1516616852504633</v>
       </c>
       <c r="D75">
-        <v>-0.2987372844536731</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03162597784785265</v>
+      </c>
+      <c r="E75">
+        <v>-0.08577313595547813</v>
+      </c>
+      <c r="F75">
+        <v>0.1604003606034586</v>
+      </c>
+      <c r="G75">
+        <v>0.03203938852754036</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05024770349805616</v>
+        <v>0.117803905143711</v>
       </c>
       <c r="C76">
-        <v>-0.04896986105665494</v>
+        <v>-0.1104213807141074</v>
       </c>
       <c r="D76">
-        <v>-0.1987410046060403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01743116723571816</v>
+      </c>
+      <c r="E76">
+        <v>-0.03177559946028371</v>
+      </c>
+      <c r="F76">
+        <v>0.09392422008477284</v>
+      </c>
+      <c r="G76">
+        <v>-0.05466004483185286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01866384008027792</v>
+        <v>0.07119088946699589</v>
       </c>
       <c r="C77">
-        <v>-0.002119969991357518</v>
+        <v>-0.05855421930744189</v>
       </c>
       <c r="D77">
-        <v>-0.08155124918119701</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01016438846754664</v>
+      </c>
+      <c r="E77">
+        <v>0.05167270751219127</v>
+      </c>
+      <c r="F77">
+        <v>-0.002715002183841733</v>
+      </c>
+      <c r="G77">
+        <v>-0.06821871482812948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.008447744834295692</v>
+        <v>0.04240266448736498</v>
       </c>
       <c r="C78">
-        <v>-0.001020347578128508</v>
+        <v>-0.04975319959812832</v>
       </c>
       <c r="D78">
-        <v>-0.06365692240431105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006332153450467246</v>
+      </c>
+      <c r="E78">
+        <v>0.03679216027861489</v>
+      </c>
+      <c r="F78">
+        <v>-0.03237476212474395</v>
+      </c>
+      <c r="G78">
+        <v>-0.1029704511388888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0003638264882933615</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0005511331078266214</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0003117381177359515</v>
+      </c>
+      <c r="E79">
+        <v>0.003195538086848235</v>
+      </c>
+      <c r="F79">
+        <v>-0.001672781156058247</v>
+      </c>
+      <c r="G79">
+        <v>-0.00158895921491667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03785690689422821</v>
+        <v>0.04487415182127313</v>
       </c>
       <c r="C80">
-        <v>-0.01329020071677994</v>
+        <v>-0.05041360509018943</v>
       </c>
       <c r="D80">
-        <v>-0.07893441129996438</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01309831765248682</v>
+      </c>
+      <c r="E80">
+        <v>0.02666880229503503</v>
+      </c>
+      <c r="F80">
+        <v>-0.00408010266385812</v>
+      </c>
+      <c r="G80">
+        <v>-0.05204903370210898</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.05957757308355831</v>
+        <v>0.1376534684285783</v>
       </c>
       <c r="C81">
-        <v>-0.04836602101448872</v>
+        <v>-0.09737473089412312</v>
       </c>
       <c r="D81">
-        <v>-0.1687833487153999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01508617433414905</v>
+      </c>
+      <c r="E81">
+        <v>-0.04804195463405349</v>
+      </c>
+      <c r="F81">
+        <v>0.1225051447775961</v>
+      </c>
+      <c r="G81">
+        <v>-0.0193762588097632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.002431000223724726</v>
+        <v>0.1403191237754</v>
       </c>
       <c r="C82">
-        <v>-0.001813418090603879</v>
+        <v>-0.0825373415647003</v>
       </c>
       <c r="D82">
-        <v>-0.004181921115438388</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01071883887503081</v>
+      </c>
+      <c r="E82">
+        <v>-0.1127252064438954</v>
+      </c>
+      <c r="F82">
+        <v>0.05480335972650704</v>
+      </c>
+      <c r="G82">
+        <v>-0.05832992462302932</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01148173170089231</v>
+        <v>0.03571578217968931</v>
       </c>
       <c r="C83">
-        <v>-0.003251752208492439</v>
+        <v>-0.02899869958320472</v>
       </c>
       <c r="D83">
-        <v>-0.01675871241867801</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006078865413859306</v>
+      </c>
+      <c r="E83">
+        <v>0.03241124472832705</v>
+      </c>
+      <c r="F83">
+        <v>-0.02637357406739356</v>
+      </c>
+      <c r="G83">
+        <v>-0.06144249007306714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.09326239852705527</v>
+        <v>0.2096034803610463</v>
       </c>
       <c r="C85">
-        <v>-0.06408828219092275</v>
+        <v>-0.1476580872552089</v>
       </c>
       <c r="D85">
-        <v>-0.2602743354185513</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01718572991471874</v>
+      </c>
+      <c r="E85">
+        <v>-0.1127107348937364</v>
+      </c>
+      <c r="F85">
+        <v>0.09794719185590331</v>
+      </c>
+      <c r="G85">
+        <v>0.07128904619163871</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01371061430849135</v>
+        <v>0.01358596694013742</v>
       </c>
       <c r="C86">
-        <v>-0.003219807772470842</v>
+        <v>-0.026260647165274</v>
       </c>
       <c r="D86">
-        <v>-0.03614391111278048</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01189419565125947</v>
+      </c>
+      <c r="E86">
+        <v>0.05395802981593963</v>
+      </c>
+      <c r="F86">
+        <v>-0.008901226919144588</v>
+      </c>
+      <c r="G86">
+        <v>-0.194194648347523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.004460873671049628</v>
+        <v>0.0224253583439022</v>
       </c>
       <c r="C87">
-        <v>0.01307494802705825</v>
+        <v>-0.01899642735619534</v>
       </c>
       <c r="D87">
-        <v>-0.02575314051618714</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01239203387904936</v>
+      </c>
+      <c r="E87">
+        <v>0.09943627003168831</v>
+      </c>
+      <c r="F87">
+        <v>0.005957657845248304</v>
+      </c>
+      <c r="G87">
+        <v>-0.1227016952946636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05086041508991647</v>
+        <v>0.09322113685348363</v>
       </c>
       <c r="C88">
-        <v>-0.008096630472477802</v>
+        <v>-0.06862933614722339</v>
       </c>
       <c r="D88">
-        <v>-0.04109034941635003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02211407254547239</v>
+      </c>
+      <c r="E88">
+        <v>-0.004612543630335816</v>
+      </c>
+      <c r="F88">
+        <v>0.01985642244167054</v>
+      </c>
+      <c r="G88">
+        <v>-0.1045464546080538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3254009863839775</v>
+        <v>0.2311379377017215</v>
       </c>
       <c r="C89">
-        <v>-0.2078334960495811</v>
+        <v>0.3680178885963576</v>
       </c>
       <c r="D89">
-        <v>0.2158858797824494</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0002341775637119222</v>
+      </c>
+      <c r="E89">
+        <v>-0.02233955561184934</v>
+      </c>
+      <c r="F89">
+        <v>0.02428931001740448</v>
+      </c>
+      <c r="G89">
+        <v>-0.06908298425328233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2735445676848305</v>
+        <v>0.2084414357789747</v>
       </c>
       <c r="C90">
-        <v>-0.17885417776283</v>
+        <v>0.3171096932977296</v>
       </c>
       <c r="D90">
-        <v>0.1913347340243231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004658990927938484</v>
+      </c>
+      <c r="E90">
+        <v>-0.001274416190673598</v>
+      </c>
+      <c r="F90">
+        <v>0.0487030031379256</v>
+      </c>
+      <c r="G90">
+        <v>-0.04255157335158426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09323904155620158</v>
+        <v>0.1855914070515933</v>
       </c>
       <c r="C91">
-        <v>-0.07911189984582763</v>
+        <v>-0.1401418793504188</v>
       </c>
       <c r="D91">
-        <v>-0.2228441319281255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02234001428836403</v>
+      </c>
+      <c r="E91">
+        <v>-0.07686497474829453</v>
+      </c>
+      <c r="F91">
+        <v>0.1306434433806341</v>
+      </c>
+      <c r="G91">
+        <v>-0.02738104277175621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.223523999001611</v>
+        <v>0.1996492365111991</v>
       </c>
       <c r="C92">
-        <v>-0.1827736133648331</v>
+        <v>0.2575465728555791</v>
       </c>
       <c r="D92">
-        <v>0.1046767667751213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0382407140273713</v>
+      </c>
+      <c r="E92">
+        <v>0.0317987329662507</v>
+      </c>
+      <c r="F92">
+        <v>0.06473574826732538</v>
+      </c>
+      <c r="G92">
+        <v>-0.112634229739742</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2905868552519298</v>
+        <v>0.2324972842368701</v>
       </c>
       <c r="C93">
-        <v>-0.1970454766777494</v>
+        <v>0.3113646086482609</v>
       </c>
       <c r="D93">
-        <v>0.1584993421088561</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01143216034652517</v>
+      </c>
+      <c r="E93">
+        <v>0.0003821481339940717</v>
+      </c>
+      <c r="F93">
+        <v>0.04553652800482945</v>
+      </c>
+      <c r="G93">
+        <v>-0.05784089466394919</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1311859239881611</v>
+        <v>0.3184898896528965</v>
       </c>
       <c r="C94">
-        <v>-0.08034975014090501</v>
+        <v>-0.1843587729624774</v>
       </c>
       <c r="D94">
-        <v>-0.2811635878117407</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02029711043136257</v>
+      </c>
+      <c r="E94">
+        <v>-0.2711780125750525</v>
+      </c>
+      <c r="F94">
+        <v>0.449760998570244</v>
+      </c>
+      <c r="G94">
+        <v>0.395533012148417</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.003369984391727246</v>
+        <v>0.09809947384900869</v>
       </c>
       <c r="C95">
-        <v>-0.01062138879997737</v>
+        <v>-0.08745171499469281</v>
       </c>
       <c r="D95">
-        <v>-0.1274844297175768</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01016594439995068</v>
+      </c>
+      <c r="E95">
+        <v>0.08972931277835342</v>
+      </c>
+      <c r="F95">
+        <v>-0.1621053972570291</v>
+      </c>
+      <c r="G95">
+        <v>-0.008781070383619723</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1335402016664117</v>
+        <v>0.1931030978839514</v>
       </c>
       <c r="C98">
-        <v>-0.1074465648166983</v>
+        <v>-0.04346882701986512</v>
       </c>
       <c r="D98">
-        <v>-0.1315735476188673</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01234712512912443</v>
+      </c>
+      <c r="E98">
+        <v>0.10184073214052</v>
+      </c>
+      <c r="F98">
+        <v>-0.2336336167763652</v>
+      </c>
+      <c r="G98">
+        <v>0.02475164862081893</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006355140879997582</v>
+        <v>0.008467776071398243</v>
       </c>
       <c r="C101">
-        <v>0.003165884681112495</v>
+        <v>-0.02291393891231116</v>
       </c>
       <c r="D101">
-        <v>-0.01694402241079384</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009261631543173346</v>
+      </c>
+      <c r="E101">
+        <v>0.004903686456146675</v>
+      </c>
+      <c r="F101">
+        <v>0.01619136185579653</v>
+      </c>
+      <c r="G101">
+        <v>-0.1024779146779604</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05691603421245692</v>
+        <v>0.1147622737258341</v>
       </c>
       <c r="C102">
-        <v>-0.03076473430687012</v>
+        <v>-0.08198873466050727</v>
       </c>
       <c r="D102">
-        <v>-0.1342858331978651</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0007790757771097299</v>
+      </c>
+      <c r="E102">
+        <v>-0.03955694170449219</v>
+      </c>
+      <c r="F102">
+        <v>0.03678683737269276</v>
+      </c>
+      <c r="G102">
+        <v>-0.009388363420854808</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5549051679391173</v>
+        <v>0.02131919166471819</v>
       </c>
       <c r="C104">
-        <v>0.821232316729801</v>
+        <v>0.02971978840393857</v>
       </c>
       <c r="D104">
-        <v>0.02227741959882524</v>
+        <v>-0.9877083345441221</v>
+      </c>
+      <c r="E104">
+        <v>-0.05746285407433634</v>
+      </c>
+      <c r="F104">
+        <v>0.03025241527441804</v>
+      </c>
+      <c r="G104">
+        <v>0.04113596140052671</v>
       </c>
     </row>
   </sheetData>
